--- a/results/10-2024/beta/inputs-10-2024.xlsx
+++ b/results/10-2024/beta/inputs-10-2024.xlsx
@@ -773,10 +773,10 @@
     <t xml:space="preserve">2024 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2024 Q4</t>
+  </si>
+  <si>
     <t xml:space="preserve">projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024 Q4</t>
   </si>
   <si>
     <t xml:space="preserve">2025 Q1</t>
@@ -21662,7 +21662,7 @@
         <v>1567.7</v>
       </c>
       <c r="L203" t="n">
-        <v>321.194</v>
+        <v>884.094</v>
       </c>
       <c r="M203" t="n">
         <v>75.484</v>
@@ -21710,13 +21710,13 @@
         <v>0</v>
       </c>
       <c r="AB203" t="n">
-        <v>160.9</v>
+        <v>0</v>
       </c>
       <c r="AC203" t="n">
         <v>0</v>
       </c>
       <c r="AD203" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AE203" t="n">
         <v>0.6</v>
@@ -23349,49 +23349,49 @@
         <v>252</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D220" t="n">
-        <v>0.00631637071565883</v>
+        <v>0.00440944881889749</v>
       </c>
       <c r="E220" t="n">
-        <v>0.00563330429941056</v>
+        <v>0.00724299619663626</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00563330429941056</v>
+        <v>0.00719601681061177</v>
       </c>
       <c r="G220" t="n">
-        <v>0.00563330429941056</v>
+        <v>0.00723457563419982</v>
       </c>
       <c r="H220" t="n">
-        <v>0.00372282063377272</v>
+        <v>0.00375583046035288</v>
       </c>
       <c r="I220" t="n">
         <v>0.0051977939134229</v>
       </c>
       <c r="J220" t="n">
-        <v>29330.9796615315</v>
+        <v>29349.9</v>
       </c>
       <c r="K220" t="n">
-        <v>1841.20440520493</v>
+        <v>1893.8</v>
       </c>
       <c r="L220" t="n">
-        <v>445.299677028506</v>
+        <v>461.92733</v>
       </c>
       <c r="M220" t="n">
         <v>77.681</v>
       </c>
       <c r="N220" t="n">
-        <v>3129.87244768569</v>
+        <v>3141.3</v>
       </c>
       <c r="O220" t="n">
-        <v>4501.55970622081</v>
+        <v>4504.1</v>
       </c>
       <c r="P220" t="n">
-        <v>2474.80324405326</v>
+        <v>2478.8</v>
       </c>
       <c r="Q220" t="n">
         <v>505.549857309427</v>
@@ -23403,10 +23403,10 @@
         <v>159.961884337329</v>
       </c>
       <c r="T220" t="n">
-        <v>2142.099</v>
+        <v>2151.899</v>
       </c>
       <c r="U220" t="n">
-        <v>221.505604545001</v>
+        <v>217.6</v>
       </c>
       <c r="V220" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y220" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z220" t="n">
-        <v>92.335</v>
+        <v>92.1</v>
       </c>
       <c r="AA220" t="n">
         <v>1.365</v>
@@ -23436,21 +23436,21 @@
         <v>2.626465</v>
       </c>
       <c r="AE220" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AF220" t="n">
-        <v>1719.86170146956</v>
+        <v>1731.437</v>
       </c>
       <c r="AG220" t="n">
-        <v>296.963947310976</v>
+        <v>298.663</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" t="s">
         <v>254</v>
-      </c>
-      <c r="B221" t="s">
-        <v>253</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -23474,25 +23474,25 @@
         <v>0.00524986184574083</v>
       </c>
       <c r="J221" t="n">
-        <v>29622.1743479247</v>
+        <v>29641.2825253979</v>
       </c>
       <c r="K221" t="n">
-        <v>1859.38229638202</v>
+        <v>1912.49715834583</v>
       </c>
       <c r="L221" t="n">
-        <v>450.295533887509</v>
+        <v>467.087025883687</v>
       </c>
       <c r="M221" t="n">
         <v>79.275</v>
       </c>
       <c r="N221" t="n">
-        <v>3158.47620875998</v>
+        <v>3170.00819695195</v>
       </c>
       <c r="O221" t="n">
-        <v>4550.43377888332</v>
+        <v>4552.98820304714</v>
       </c>
       <c r="P221" t="n">
-        <v>2499.8538378349</v>
+        <v>2512.48563586214</v>
       </c>
       <c r="Q221" t="n">
         <v>515.702621440952</v>
@@ -23504,7 +23504,7 @@
         <v>161.167613599023</v>
       </c>
       <c r="T221" t="n">
-        <v>2150.327</v>
+        <v>2160.127</v>
       </c>
       <c r="U221" t="n">
         <v>224.743658420665</v>
@@ -23522,7 +23522,7 @@
         <v>22.5</v>
       </c>
       <c r="Z221" t="n">
-        <v>99.434</v>
+        <v>97.834</v>
       </c>
       <c r="AA221" t="n">
         <v>-0.901</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="AF221" t="n">
-        <v>1735.61105330346</v>
+        <v>1747.0425587079</v>
       </c>
       <c r="AG221" t="n">
-        <v>297.873015404382</v>
+        <v>299.496536447372</v>
       </c>
     </row>
     <row r="222">
@@ -23551,7 +23551,7 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -23575,25 +23575,25 @@
         <v>0.00530534068053212</v>
       </c>
       <c r="J222" t="n">
-        <v>29926.0252706876</v>
+        <v>29945.3294512391</v>
       </c>
       <c r="K222" t="n">
-        <v>1881.31760806207</v>
+        <v>1935.05907115805</v>
       </c>
       <c r="L222" t="n">
-        <v>433.711851584924</v>
+        <v>450.668796978304</v>
       </c>
       <c r="M222" t="n">
         <v>79.275</v>
       </c>
       <c r="N222" t="n">
-        <v>3186.06513449425</v>
+        <v>3197.69785327426</v>
       </c>
       <c r="O222" t="n">
-        <v>4624.30058347259</v>
+        <v>4626.71543072323</v>
       </c>
       <c r="P222" t="n">
-        <v>2525.65791311798</v>
+        <v>2538.47766418171</v>
       </c>
       <c r="Q222" t="n">
         <v>526.059279645475</v>
@@ -23605,7 +23605,7 @@
         <v>162.643685744505</v>
       </c>
       <c r="T222" t="n">
-        <v>2191.83563217</v>
+        <v>2201.67869024</v>
       </c>
       <c r="U222" t="n">
         <v>228.029047409692</v>
@@ -23623,7 +23623,7 @@
         <v>22.5</v>
       </c>
       <c r="Z222" t="n">
-        <v>99.434</v>
+        <v>97.834</v>
       </c>
       <c r="AA222" t="n">
         <v>-0.901</v>
@@ -23641,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="AF222" t="n">
-        <v>1751.54148558977</v>
+        <v>1762.82819925693</v>
       </c>
       <c r="AG222" t="n">
-        <v>298.784866343335</v>
+        <v>300.3323992057</v>
       </c>
     </row>
     <row r="223">
@@ -23652,7 +23652,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -23676,25 +23676,25 @@
         <v>0.0053207417791068</v>
       </c>
       <c r="J223" t="n">
-        <v>30237.2674354903</v>
+        <v>30256.7723869391</v>
       </c>
       <c r="K223" t="n">
-        <v>1904.12438997497</v>
+        <v>1958.51734850333</v>
       </c>
       <c r="L223" t="n">
-        <v>429.2881795</v>
+        <v>446.412208570169</v>
       </c>
       <c r="M223" t="n">
         <v>75.203</v>
       </c>
       <c r="N223" t="n">
-        <v>3213.78640035216</v>
+        <v>3225.52033291041</v>
       </c>
       <c r="O223" t="n">
-        <v>4656.14393085414</v>
+        <v>4658.68738402263</v>
       </c>
       <c r="P223" t="n">
-        <v>2551.39616301033</v>
+        <v>2564.39985834083</v>
       </c>
       <c r="Q223" t="n">
         <v>536.623926649562</v>
@@ -23706,7 +23706,7 @@
         <v>164.114351032311</v>
       </c>
       <c r="T223" t="n">
-        <v>2198.53563217</v>
+        <v>2208.37869024</v>
       </c>
       <c r="U223" t="n">
         <v>231.362463474923</v>
@@ -23724,7 +23724,7 @@
         <v>22.5</v>
       </c>
       <c r="Z223" t="n">
-        <v>91.412</v>
+        <v>89.812</v>
       </c>
       <c r="AA223" t="n">
         <v>-0.901</v>
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>1769.01385440428</v>
+        <v>1780.16063363927</v>
       </c>
       <c r="AG223" t="n">
-        <v>300.340890716562</v>
+        <v>301.806115567553</v>
       </c>
     </row>
     <row r="224">
@@ -23753,7 +23753,7 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>0.00534438472662901</v>
       </c>
       <c r="J224" t="n">
-        <v>30542.4346068357</v>
+        <v>30562.1364104264</v>
       </c>
       <c r="K224" t="n">
-        <v>1927.50601852508</v>
+        <v>1982.56689347672</v>
       </c>
       <c r="L224" t="n">
-        <v>432.068528909646</v>
+        <v>449.361288</v>
       </c>
       <c r="M224" t="n">
         <v>75.203</v>
       </c>
       <c r="N224" t="n">
-        <v>3240.50343863485</v>
+        <v>3252.33491841196</v>
       </c>
       <c r="O224" t="n">
-        <v>4688.23404239406</v>
+        <v>4690.90825073696</v>
       </c>
       <c r="P224" t="n">
-        <v>2576.13119795466</v>
+        <v>2589.31708878998</v>
       </c>
       <c r="Q224" t="n">
         <v>547.400739412603</v>
@@ -23807,7 +23807,7 @@
         <v>165.049737410218</v>
       </c>
       <c r="T224" t="n">
-        <v>2205.23563217</v>
+        <v>2215.07869024</v>
       </c>
       <c r="U224" t="n">
         <v>234.744608694576</v>
@@ -23825,7 +23825,7 @@
         <v>22.5</v>
       </c>
       <c r="Z224" t="n">
-        <v>91.412</v>
+        <v>89.812</v>
       </c>
       <c r="AA224" t="n">
         <v>-0.901</v>
@@ -23843,10 +23843,10 @@
         <v>0</v>
       </c>
       <c r="AF224" t="n">
-        <v>1786.67596716332</v>
+        <v>1797.68145172068</v>
       </c>
       <c r="AG224" t="n">
-        <v>301.901678402383</v>
+        <v>303.283944913944</v>
       </c>
     </row>
     <row r="225">
@@ -23854,7 +23854,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -23878,25 +23878,25 @@
         <v>0.00535891413284784</v>
       </c>
       <c r="J225" t="n">
-        <v>30832.0092949736</v>
+        <v>30851.8978925676</v>
       </c>
       <c r="K225" t="n">
-        <v>1941.26966802275</v>
+        <v>1996.72371351529</v>
       </c>
       <c r="L225" t="n">
-        <v>430.990575315009</v>
+        <v>448.453726991034</v>
       </c>
       <c r="M225" t="n">
         <v>75.203</v>
       </c>
       <c r="N225" t="n">
-        <v>3267.19757663882</v>
+        <v>3279.12652002303</v>
       </c>
       <c r="O225" t="n">
-        <v>4720.57308971581</v>
+        <v>4723.38023384059</v>
       </c>
       <c r="P225" t="n">
-        <v>2600.54564753953</v>
+        <v>2613.92267757626</v>
       </c>
       <c r="Q225" t="n">
         <v>546.018477284129</v>
@@ -23908,7 +23908,7 @@
         <v>165.130840275354</v>
       </c>
       <c r="T225" t="n">
-        <v>2195.69663217</v>
+        <v>2205.53969024</v>
       </c>
       <c r="U225" t="n">
         <v>238.176195410118</v>
@@ -23926,7 +23926,7 @@
         <v>22.5</v>
       </c>
       <c r="Z225" t="n">
-        <v>95.751</v>
+        <v>94.151</v>
       </c>
       <c r="AA225" t="n">
         <v>-2.15</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="AF225" t="n">
-        <v>1810.04855171402</v>
+        <v>1820.94510685642</v>
       </c>
       <c r="AG225" t="n">
-        <v>304.411554775571</v>
+        <v>305.714193005152</v>
       </c>
     </row>
     <row r="226">
@@ -23955,7 +23955,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -23979,25 +23979,25 @@
         <v>0.00533462036210497</v>
       </c>
       <c r="J226" t="n">
-        <v>31101.5365047019</v>
+        <v>31121.5989644067</v>
       </c>
       <c r="K226" t="n">
-        <v>1953.70007373466</v>
+        <v>2009.5092045073</v>
       </c>
       <c r="L226" t="n">
-        <v>433.952127568321</v>
+        <v>451.587350777436</v>
       </c>
       <c r="M226" t="n">
         <v>75.203</v>
       </c>
       <c r="N226" t="n">
-        <v>3295.00382404962</v>
+        <v>3307.03429149024</v>
       </c>
       <c r="O226" t="n">
-        <v>4803.84107383256</v>
+        <v>4806.46436496607</v>
       </c>
       <c r="P226" t="n">
-        <v>2622.39218623086</v>
+        <v>2635.95473940002</v>
       </c>
       <c r="Q226" t="n">
         <v>544.639705557575</v>
@@ -24009,7 +24009,7 @@
         <v>164.406321346802</v>
       </c>
       <c r="T226" t="n">
-        <v>2239.40966787991</v>
+        <v>2249.29677435552</v>
       </c>
       <c r="U226" t="n">
         <v>241.657946376297</v>
@@ -24027,7 +24027,7 @@
         <v>22.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>93.601</v>
+        <v>92.001</v>
       </c>
       <c r="AA226" t="n">
         <v>0</v>
@@ -24045,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="AF226" t="n">
-        <v>1833.73823579856</v>
+        <v>1844.52367414491</v>
       </c>
       <c r="AG226" t="n">
-        <v>306.936964979938</v>
+        <v>308.158822446401</v>
       </c>
     </row>
     <row r="227">
@@ -24056,7 +24056,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -24080,25 +24080,25 @@
         <v>0.00530631319568364</v>
       </c>
       <c r="J227" t="n">
-        <v>31374.9112102867</v>
+        <v>31395.1500139805</v>
       </c>
       <c r="K227" t="n">
-        <v>1968.45827396849</v>
+        <v>2024.68898548318</v>
       </c>
       <c r="L227" t="n">
-        <v>434.1398612</v>
+        <v>451.948851432976</v>
       </c>
       <c r="M227" t="n">
         <v>75.203</v>
       </c>
       <c r="N227" t="n">
-        <v>3322.42818508122</v>
+        <v>3334.55878226375</v>
       </c>
       <c r="O227" t="n">
-        <v>4836.93610509784</v>
+        <v>4839.69520590623</v>
       </c>
       <c r="P227" t="n">
-        <v>2645.11844253784</v>
+        <v>2658.84952528593</v>
       </c>
       <c r="Q227" t="n">
         <v>543.264415419196</v>
@@ -24110,7 +24110,7 @@
         <v>164.287370477936</v>
       </c>
       <c r="T227" t="n">
-        <v>2245.38166787991</v>
+        <v>2255.26877435552</v>
       </c>
       <c r="U227" t="n">
         <v>245.190594913367</v>
@@ -24128,7 +24128,7 @@
         <v>22.5</v>
       </c>
       <c r="Z227" t="n">
-        <v>93.601</v>
+        <v>92.001</v>
       </c>
       <c r="AA227" t="n">
         <v>0</v>
@@ -24146,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="AF227" t="n">
-        <v>1857.7496961877</v>
+        <v>1868.42180691252</v>
       </c>
       <c r="AG227" t="n">
-        <v>309.478005155644</v>
+        <v>310.617918341441</v>
       </c>
     </row>
     <row r="228">
@@ -24157,22 +24157,22 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00493841965187825</v>
+        <v>0.00444539201119287</v>
       </c>
       <c r="E228" t="n">
-        <v>0.00630060376804042</v>
+        <v>0.00580957754092171</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00630060376804042</v>
+        <v>0.00580957754092171</v>
       </c>
       <c r="G228" t="n">
-        <v>0.00630060376804042</v>
+        <v>0.00580957754092171</v>
       </c>
       <c r="H228" t="n">
         <v>0.00479383672055</v>
@@ -24181,40 +24181,40 @@
         <v>0.00527407883226472</v>
       </c>
       <c r="J228" t="n">
-        <v>31659.5246537676</v>
+        <v>31679.947051148</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>2038.61125330117</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>456.1445332</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
+        <v>75.203</v>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
+        <v>3362.393673419</v>
       </c>
       <c r="O228" t="n">
-        <v>0</v>
+        <v>4873.18514639485</v>
       </c>
       <c r="P228" t="n">
-        <v>0</v>
+        <v>2682.25778530291</v>
       </c>
       <c r="Q228" t="n">
-        <v>0</v>
+        <v>541.892598077503</v>
       </c>
       <c r="R228" t="n">
-        <v>0</v>
+        <v>162.725745305459</v>
       </c>
       <c r="S228" t="n">
-        <v>0</v>
+        <v>164.725325949672</v>
       </c>
       <c r="T228" t="n">
-        <v>0</v>
+        <v>2262.96877435552</v>
       </c>
       <c r="U228" t="n">
-        <v>0</v>
+        <v>248.77488506154</v>
       </c>
       <c r="V228" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="Z228" t="n">
         <v>0</v>
@@ -24247,10 +24247,10 @@
         <v>0</v>
       </c>
       <c r="AF228" t="n">
-        <v>0</v>
+        <v>1892.64422993259</v>
       </c>
       <c r="AG228" t="n">
-        <v>0</v>
+        <v>313.091566297638</v>
       </c>
     </row>
     <row r="229">
@@ -24258,7 +24258,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>0.00523379729860385</v>
       </c>
       <c r="J229" t="n">
-        <v>31947.1755939774</v>
+        <v>31967.7835444218</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -24383,7 +24383,7 @@
         <v>0.00522327514825061</v>
       </c>
       <c r="J230" t="n">
-        <v>32230.6752886578</v>
+        <v>32251.4661143502</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -24484,7 +24484,7 @@
         <v>0.00515037171705424</v>
       </c>
       <c r="J231" t="n">
-        <v>32511.5424861734</v>
+        <v>32532.5144889865</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -24561,7 +24561,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0.00510328671531268</v>
       </c>
       <c r="J232" t="n">
-        <v>32795.7509300906</v>
+        <v>32816.9062653397</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -24662,7 +24662,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0.00506502170135303</v>
       </c>
       <c r="J233" t="n">
-        <v>33083.7056199731</v>
+        <v>33105.0467042242</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -24763,7 +24763,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -24787,7 +24787,7 @@
         <v>0.00501081648038282</v>
       </c>
       <c r="J234" t="n">
-        <v>33376.0140551669</v>
+        <v>33397.5436968611</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0.00502660062373872</v>
       </c>
       <c r="J235" t="n">
-        <v>33675.3087328367</v>
+        <v>33697.0314385427</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -24989,7 +24989,7 @@
         <v>0.00501362928348925</v>
       </c>
       <c r="J236" t="n">
-        <v>33981.0834035278</v>
+        <v>34003.0033532512</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -25066,7 +25066,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0.00500072649779626</v>
       </c>
       <c r="J237" t="n">
-        <v>34293.2368173491</v>
+        <v>34315.3581257832</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -25167,7 +25167,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -25191,7 +25191,7 @@
         <v>0.00497584366453419</v>
       </c>
       <c r="J238" t="n">
-        <v>34610.8577252822</v>
+        <v>34633.1839193066</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -25268,7 +25268,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0.00496719175837779</v>
       </c>
       <c r="J239" t="n">
-        <v>34934.0473772179</v>
+        <v>34956.582049025</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0.00492673519295383</v>
       </c>
       <c r="J240" t="n">
-        <v>35261.9957740286</v>
+        <v>35284.7419933101</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -25470,7 +25470,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0.00488279704341488</v>
       </c>
       <c r="J241" t="n">
-        <v>35593.7916666957</v>
+        <v>35616.7519153299</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -25571,7 +25571,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -25595,7 +25595,7 @@
         <v>0.00482756991313527</v>
       </c>
       <c r="J242" t="n">
-        <v>35928.6250560916</v>
+        <v>35951.8012934561</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0.0047847827449996</v>
       </c>
       <c r="J243" t="n">
-        <v>36267.0021916709</v>
+        <v>36290.3967037064</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0.00475029738109622</v>
       </c>
       <c r="J244" t="n">
-        <v>36609.0243233247</v>
+        <v>36632.6394612843</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>0.00472007545910125</v>
       </c>
       <c r="J245" t="n">
-        <v>36954.5902011619</v>
+        <v>36978.4282509864</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -25975,7 +25975,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -25999,7 +25999,7 @@
         <v>0.00468244739007639</v>
       </c>
       <c r="J246" t="n">
-        <v>37303.2948256189</v>
+        <v>37327.3578119984</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>0.00465677886260774</v>
       </c>
       <c r="J247" t="n">
-        <v>37655.2394465865</v>
+        <v>37679.5294595238</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -26177,7 +26177,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -26201,7 +26201,7 @@
         <v>0.00462371106398929</v>
       </c>
       <c r="J248" t="n">
-        <v>38010.6265638467</v>
+        <v>38035.1458239698</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -26278,7 +26278,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -26302,7 +26302,7 @@
         <v>0.00459481083552404</v>
       </c>
       <c r="J249" t="n">
-        <v>38368.4436784898</v>
+        <v>38393.1937533009</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -26403,7 +26403,7 @@
         <v>0.00456241751240172</v>
       </c>
       <c r="J250" t="n">
-        <v>38728.6907905159</v>
+        <v>38753.6732475171</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -26480,7 +26480,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -26504,7 +26504,7 @@
         <v>0.00454169639722291</v>
       </c>
       <c r="J251" t="n">
-        <v>39091.9753992707</v>
+        <v>39117.1921978397</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -26581,7 +26581,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>0.00450988792928486</v>
       </c>
       <c r="J252" t="n">
-        <v>39458.5000045362</v>
+        <v>39483.9532346758</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -26682,7 +26682,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0.00448215742174929</v>
       </c>
       <c r="J253" t="n">
-        <v>39827.8596067484</v>
+        <v>39853.5510972111</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -26783,7 +26783,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -26807,7 +26807,7 @@
         <v>0.00445843265792623</v>
       </c>
       <c r="J254" t="n">
-        <v>40199.9529560165</v>
+        <v>40225.8844702422</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -26884,7 +26884,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -26908,7 +26908,7 @@
         <v>0.00443122698635778</v>
       </c>
       <c r="J255" t="n">
-        <v>40574.9825521224</v>
+        <v>40601.1559841761</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -26985,7 +26985,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         <v>0.00441167784045593</v>
       </c>
       <c r="J256" t="n">
-        <v>40953.1508948479</v>
+        <v>40979.5682694199</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -27086,7 +27086,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>0.00439230042599803</v>
       </c>
       <c r="J257" t="n">
-        <v>41334.5592340841</v>
+        <v>41361.2226411772</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -27187,7 +27187,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -27211,7 +27211,7 @@
         <v>0.00437675198161469</v>
       </c>
       <c r="J258" t="n">
-        <v>41719.5113195038</v>
+        <v>41746.4230450586</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -27288,7 +27288,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -27312,7 +27312,7 @@
         <v>0.00435767949923127</v>
       </c>
       <c r="J259" t="n">
-        <v>42107.8046513251</v>
+        <v>42134.9668506571</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -27389,7 +27389,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -27413,7 +27413,7 @@
         <v>0.00433514478295249</v>
       </c>
       <c r="J260" t="n">
-        <v>42499.6417293299</v>
+        <v>42527.0566883796</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>

--- a/results/10-2024/beta/inputs-10-2024.xlsx
+++ b/results/10-2024/beta/inputs-10-2024.xlsx
@@ -21662,7 +21662,7 @@
         <v>1567.7</v>
       </c>
       <c r="L203" t="n">
-        <v>884.094</v>
+        <v>321.194</v>
       </c>
       <c r="M203" t="n">
         <v>75.484</v>
@@ -21710,13 +21710,13 @@
         <v>0</v>
       </c>
       <c r="AB203" t="n">
-        <v>0</v>
+        <v>160.9</v>
       </c>
       <c r="AC203" t="n">
         <v>0</v>
       </c>
       <c r="AD203" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE203" t="n">
         <v>0.6</v>
@@ -23456,16 +23456,16 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.00580887002259489</v>
+        <v>0.00629989728491442</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00534045807802097</v>
+        <v>0.00583217133289549</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00534045807802097</v>
+        <v>0.00583217133289549</v>
       </c>
       <c r="G221" t="n">
-        <v>0.00534045807802097</v>
+        <v>0.00583217133289549</v>
       </c>
       <c r="H221" t="n">
         <v>0.00495944283065186</v>
@@ -23477,7 +23477,7 @@
         <v>29641.2825253979</v>
       </c>
       <c r="K221" t="n">
-        <v>1912.49715834583</v>
+        <v>1885.49715834583</v>
       </c>
       <c r="L221" t="n">
         <v>467.087025883687</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="Y221" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z221" t="n">
         <v>97.834</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="AF221" t="n">
-        <v>1747.0425587079</v>
+        <v>1763.8182359076</v>
       </c>
       <c r="AG221" t="n">
-        <v>299.496536447372</v>
+        <v>301.72085924767</v>
       </c>
     </row>
     <row r="222">
@@ -23578,7 +23578,7 @@
         <v>29945.3294512391</v>
       </c>
       <c r="K222" t="n">
-        <v>1935.05907115805</v>
+        <v>1907.74054956272</v>
       </c>
       <c r="L222" t="n">
         <v>450.668796978304</v>
@@ -23620,7 +23620,7 @@
         <v>0</v>
       </c>
       <c r="Y222" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z222" t="n">
         <v>97.834</v>
@@ -23641,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="AF222" t="n">
-        <v>1762.82819925693</v>
+        <v>1779.76927899249</v>
       </c>
       <c r="AG222" t="n">
-        <v>300.3323992057</v>
+        <v>302.562929852717</v>
       </c>
     </row>
     <row r="223">
@@ -23679,7 +23679,7 @@
         <v>30256.7723869391</v>
       </c>
       <c r="K223" t="n">
-        <v>1958.51734850333</v>
+        <v>1930.86765073576</v>
       </c>
       <c r="L223" t="n">
         <v>446.412208570169</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y223" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z223" t="n">
         <v>89.812</v>
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>1780.16063363927</v>
+        <v>1797.26908032064</v>
       </c>
       <c r="AG223" t="n">
-        <v>301.806115567553</v>
+        <v>304.042871386726</v>
       </c>
     </row>
     <row r="224">
@@ -23780,7 +23780,7 @@
         <v>30562.1364104264</v>
       </c>
       <c r="K224" t="n">
-        <v>1982.56689347672</v>
+        <v>1954.57767221682</v>
       </c>
       <c r="L224" t="n">
         <v>449.361288</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="Y224" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z224" t="n">
         <v>89.812</v>
@@ -23843,10 +23843,10 @@
         <v>0</v>
       </c>
       <c r="AF224" t="n">
-        <v>1797.68145172068</v>
+        <v>1814.95925428489</v>
       </c>
       <c r="AG224" t="n">
-        <v>303.283944913944</v>
+        <v>305.52694327906</v>
       </c>
     </row>
     <row r="225">
@@ -23881,7 +23881,7 @@
         <v>30851.8978925676</v>
       </c>
       <c r="K225" t="n">
-        <v>1996.72371351529</v>
+        <v>1968.53463096965</v>
       </c>
       <c r="L225" t="n">
         <v>448.453726991034</v>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Y225" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z225" t="n">
         <v>94.151</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="AF225" t="n">
-        <v>1820.94510685642</v>
+        <v>1838.44755519597</v>
       </c>
       <c r="AG225" t="n">
-        <v>305.714193005152</v>
+        <v>307.97046464255</v>
       </c>
     </row>
     <row r="226">
@@ -23982,7 +23982,7 @@
         <v>31121.5989644067</v>
       </c>
       <c r="K226" t="n">
-        <v>2009.5092045073</v>
+        <v>1981.13962064417</v>
       </c>
       <c r="L226" t="n">
         <v>451.587350777436</v>
@@ -24024,7 +24024,7 @@
         <v>0</v>
       </c>
       <c r="Y226" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z226" t="n">
         <v>92.001</v>
@@ -24045,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="AF226" t="n">
-        <v>1844.52367414491</v>
+        <v>1862.25402419393</v>
       </c>
       <c r="AG226" t="n">
-        <v>308.158822446401</v>
+        <v>310.42844590262</v>
       </c>
     </row>
     <row r="227">
@@ -24083,7 +24083,7 @@
         <v>31395.1500139805</v>
       </c>
       <c r="K227" t="n">
-        <v>2024.68898548318</v>
+        <v>1996.10509851138</v>
       </c>
       <c r="L227" t="n">
         <v>451.948851432976</v>
@@ -24125,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="Y227" t="n">
-        <v>22.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z227" t="n">
         <v>92.001</v>
@@ -24146,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="AF227" t="n">
-        <v>1868.42180691252</v>
+        <v>1886.38336419595</v>
       </c>
       <c r="AG227" t="n">
-        <v>310.617918341441</v>
+        <v>312.900972627831</v>
       </c>
     </row>
     <row r="228">
@@ -24184,7 +24184,7 @@
         <v>31679.947051148</v>
       </c>
       <c r="K228" t="n">
-        <v>2038.61125330117</v>
+        <v>2009.83081637402</v>
       </c>
       <c r="L228" t="n">
         <v>456.1445332</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Y228" t="n">
-        <v>23.5</v>
+        <v>35.7</v>
       </c>
       <c r="Z228" t="n">
         <v>0</v>
@@ -24247,10 +24247,10 @@
         <v>0</v>
       </c>
       <c r="AF228" t="n">
-        <v>1892.64422993259</v>
+        <v>1910.84035033693</v>
       </c>
       <c r="AG228" t="n">
-        <v>313.091566297638</v>
+        <v>315.388130893108</v>
       </c>
     </row>
     <row r="229">
